--- a/app/assets/tables/Propiedades_Agua_saturada.xlsx
+++ b/app/assets/tables/Propiedades_Agua_saturada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amparoquiroz/Desktop/unlockEd/app/app/assets/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71BB470-4A46-0A4D-A652-18529B845D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EF8B35-0E7E-EC41-8BCB-1D62C87A32F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15140" xr2:uid="{BCF0BAC2-52E2-CF4A-B207-F13AA2BA9121}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
